--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/DISTRICT_OF_COLUMBIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/DISTRICT_OF_COLUMBIA_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -449,7 +449,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C6">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C7">
@@ -576,7 +576,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -755,12 +755,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C28">
@@ -835,7 +835,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C33">
@@ -848,7 +848,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C34">
@@ -874,7 +874,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C36">
@@ -887,7 +887,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C37">
@@ -900,7 +900,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C38">
@@ -913,7 +913,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C39">
@@ -939,7 +939,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C41">
@@ -1084,7 +1084,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C51">
@@ -1141,7 +1141,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C55">
@@ -1219,7 +1219,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C61">
@@ -1276,7 +1276,7 @@
     <row r="65">
       <c r="B65" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C65">
@@ -1367,7 +1367,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C72">
@@ -1393,7 +1393,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C74">
@@ -1406,7 +1406,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C75">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Apetatitlán de Antonio Carvajal</t>
+          <t>Apetatitlán De Antonio Carvajal</t>
         </is>
       </c>
       <c r="C83">
@@ -1712,41 +1712,6 @@
       </c>
       <c r="D96">
         <v>1</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/DISTRICT_OF_COLUMBIA_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/DISTRICT_OF_COLUMBIA_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -561,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Teoloyucan</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -771,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -784,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -833,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Alcozauca De Guerero</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Atlixtac</t>
@@ -872,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Chilapa De Álvarez</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Copanatoyac</t>
@@ -937,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -950,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1056,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -1069,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -1082,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Jonacatepec De Leandro Valle</t>
@@ -1095,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -1108,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1139,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1152,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>San Carlos Yautepec</t>
@@ -1165,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Miguel Mixtepec</t>
@@ -1178,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Pablo Huitzo</t>
@@ -1191,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -1204,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -1217,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1261,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -1274,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -1300,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Juan N. Méndez</t>
@@ -1313,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Molcaxac</t>
@@ -1326,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1365,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1391,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -1404,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1479,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1510,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1541,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -1554,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1585,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -1598,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -1611,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1624,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -1637,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Soledad Atzompa</t>
@@ -1650,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -1663,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1676,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -1689,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
